--- a/fechamento_2021/fechamento_janeiro/esus_covisa_biofast_jan_12042022_abertos_Plan3.xlsx
+++ b/fechamento_2021/fechamento_janeiro/esus_covisa_biofast_jan_12042022_abertos_Plan3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_janeiro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\UiPath\rpa_esus_edge\fechamento_2021\fechamento_janeiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC6BBCF-A2CF-47A0-B542-8463E536746D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46AD0426-D217-439C-A4D1-A15044B38316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{71B7AD53-CD2B-4977-8595-56D6510B650C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{71B7AD53-CD2B-4977-8595-56D6510B650C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1712,9 +1712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC206C07-B060-43DA-B059-ADDADE6090B0}">
   <dimension ref="A1:BL229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
